--- a/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
+++ b/NEW HR/VILLANUEVA, MARILYN LOQUIAS.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>9/4,5/2023</t>
+  </si>
+  <si>
+    <t>11/16,17/2023</t>
+  </si>
+  <si>
+    <t>12/11-15/2023</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1315,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1643,7 +1649,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1810,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1814,7 +1820,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3326,13 +3332,15 @@
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
@@ -3344,13 +3352,15 @@
         <v>45200</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
@@ -3683,12 +3693,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +3859,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.539999999999992</v>
+        <v>82.539999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3859,7 +3869,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.375</v>
+        <v>153.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5281,6 +5291,68 @@
       <c r="K72" s="50">
         <v>45180</v>
       </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="40">
+        <v>2</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="40">
+        <v>5</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
